--- a/Расписания/Расписание 2021-2022.xlsx
+++ b/Расписания/Расписание 2021-2022.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="18468" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="42">
   <si>
     <t>Понедельник</t>
   </si>
@@ -128,6 +129,18 @@
   </si>
   <si>
     <t>19.15-20.00</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Программа ЛЭМБ</t>
+  </si>
+  <si>
+    <t>17.25-19.55</t>
+  </si>
+  <si>
+    <t>16.30-19.00</t>
   </si>
 </sst>
 </file>
@@ -136,17 +149,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -161,11 +180,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,72 +197,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,19 +218,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,8 +262,69 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,139 +333,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,59 +525,77 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,21 +645,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -589,17 +659,67 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,309 +756,268 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1209,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1239,652 +1318,652 @@
       </c>
     </row>
     <row r="2" ht="40.35" spans="1:12">
-      <c r="A2" s="1">
+      <c r="A2" s="9">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="11">
         <v>112</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="11">
         <v>122</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="28.35" spans="1:12">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="28.35" spans="1:12">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="40.35" spans="1:12">
-      <c r="A5" s="10">
+      <c r="A5" s="18">
         <v>47</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="19">
         <v>101</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="19">
         <v>209</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" ht="28.35" spans="1:12">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" ht="28.35" spans="1:12">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" ht="40.35" spans="1:12">
-      <c r="A8" s="10">
+      <c r="A8" s="18">
         <v>48</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="19">
         <v>112</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="19">
         <v>304</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="28.35" spans="1:12">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13">
         <v>101</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" ht="28.35" spans="1:12">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="40.35" spans="1:12">
-      <c r="A11" s="10">
+      <c r="A11" s="18">
         <v>49</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="19">
         <v>112</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="19">
         <v>123</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="28.35" spans="1:12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="28.35" spans="1:12">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" ht="40.35" spans="1:12">
-      <c r="A14" s="10">
+      <c r="A14" s="18">
         <v>50</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="19">
         <v>101</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="19">
         <v>210</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" ht="28.35" spans="1:12">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" ht="28.35" spans="1:12">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" ht="40.35" spans="1:12">
-      <c r="A17" s="10">
+      <c r="A17" s="18">
         <v>51</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="19">
         <v>112</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="19">
         <v>305</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="28.35" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13">
         <v>101</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
+      <c r="J18" s="13"/>
+      <c r="K18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" ht="28.35" spans="1:12">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="s">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" ht="40.35" spans="1:12">
-      <c r="A20" s="10">
+      <c r="A20" s="18">
         <v>52</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="19">
         <v>112</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="19">
         <v>124</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" ht="28.35" spans="1:12">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" ht="28.35" spans="1:12">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="40.35" spans="1:12">
-      <c r="A23" s="10">
+      <c r="A23" s="18">
         <v>53</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="19">
         <v>112</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="19">
         <v>211</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" ht="28.35" spans="1:12">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" ht="28.35" spans="1:12">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" ht="40.35" spans="1:12">
-      <c r="A26" s="10">
+      <c r="A26" s="18">
         <v>54</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="19">
         <v>101</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="19">
         <v>306</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6" t="s">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6" t="s">
+      <c r="K26" s="14"/>
+      <c r="L26" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" ht="28.35" spans="1:12">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5" t="s">
+      <c r="K27" s="13"/>
+      <c r="L27" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" ht="28.35" spans="1:12">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8" t="s">
+      <c r="K28" s="16"/>
+      <c r="L28" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1892,4 +1971,324 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" ht="15.15" spans="5:10">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="28.65" customHeight="1" spans="1:26">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" ht="27.15" spans="1:26">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" ht="27.15" spans="1:26">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" ht="27.15" spans="1:26">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" ht="15.15"/>
+    <row r="7" ht="27.15" spans="1:26">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>101</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" ht="27.15" spans="1:26">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" ht="27.15" spans="1:26">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" ht="27.15" spans="1:26">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>